--- a/6) Point set Delaunay triangulation/test/Analysis.xlsx
+++ b/6) Point set Delaunay triangulation/test/Analysis.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Delaunay" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -126,7 +124,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Delaunay!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -140,7 +138,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$401</c:f>
+              <c:f>Delaunay!$A$2:$A$401</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="400"/>
@@ -1349,7 +1347,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$401</c:f>
+              <c:f>Delaunay!$B$2:$B$401</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="400"/>
@@ -2563,7 +2561,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
+              <c:f>Delaunay!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2577,7 +2575,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$401</c:f>
+              <c:f>Delaunay!$A$2:$A$401</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="400"/>
@@ -3786,7 +3784,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$401</c:f>
+              <c:f>Delaunay!$C$2:$C$401</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="400"/>
@@ -5073,16 +5071,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5394,7 +5392,7 @@
   <dimension ref="A1:C401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9819,28 +9817,4 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>